--- a/tareas/planning/IMDB_TEST_CASES_LOCATORS.xlsx
+++ b/tareas/planning/IMDB_TEST_CASES_LOCATORS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmarNavarro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adventamx-my.sharepoint.com/personal/monica_benitez_adventa_mx/Documents/Escritorio/Selenium/tareas/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A39C650-3DE2-48F8-982E-7C5A5C0F63AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{5A39C650-3DE2-48F8-982E-7C5A5C0F63AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DD47815C-34B9-4EC2-B994-79FA9B5C6701}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estilo Agil" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -192,6 +192,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -624,13 +627,13 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -9532,7 +9535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6499B09-E272-4B06-80F3-64AC0DBBBA0B}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
